--- a/Expr1d/Expr_8.xlsx
+++ b/Expr1d/Expr_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F5FC2-3801-EB4C-A254-5B0D4FE07BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8463F55-9560-E84A-8578-DDBACC4F7988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="760" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="760" windowWidth="28800" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -619,7 +619,7 @@
         <v>256</v>
       </c>
       <c r="I2" s="1">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
@@ -735,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>

--- a/Expr1d/Expr_8.xlsx
+++ b/Expr1d/Expr_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr1d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8463F55-9560-E84A-8578-DDBACC4F7988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDE08A5-35D5-844D-A5CB-67296F1E7940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="760" windowWidth="28800" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="760" windowWidth="28800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -121,6 +121,9 @@
   <si>
     <t>Result/Expr1_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +169,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +236,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -541,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -552,7 +565,7 @@
     <col min="11" max="11" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +605,11 @@
       <c r="M1" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -633,8 +649,11 @@
       <c r="M2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="N2" s="7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="M3" s="6"/>
     </row>
   </sheetData>
@@ -735,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
